--- a/ABTesting-child or teen.xlsx
+++ b/ABTesting-child or teen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eemengineering-my.sharepoint.com/personal/ed_moss_eemengineering_com/Documents/IDEMS/PLH App Helper Scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_618597B28790DB3AFB1B2E11595ED87656CC8418" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B0CD4C3-7C9D-444B-B414-4EA740458EAF}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_63CD56A387C0561FC7FB3711595ED87656CCA401" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{187900A0-FE76-4F7C-9EFA-B564C0FE6F66}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="118">
   <si>
     <t>type_of_edit</t>
   </si>
@@ -85,6 +85,9 @@
     <t>teen</t>
   </si>
   <si>
+    <t>replace_quick_replies</t>
+  </si>
+  <si>
     <t>My child or teen did not want to follow the instruction</t>
   </si>
   <si>
@@ -92,6 +95,12 @@
   </si>
   <si>
     <t>I forgot to praise my child or teen for following my instruction</t>
+  </si>
+  <si>
+    <t>replace_arguments</t>
+  </si>
+  <si>
+    <t>replace_categories</t>
   </si>
   <si>
     <t>My child or teen did not want to fol</t>
@@ -451,12 +460,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,15 +770,15 @@
   <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
@@ -830,7 +838,7 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
@@ -863,13 +871,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
+      <c r="D3" t="s">
+        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -901,13 +909,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
+      <c r="D4" t="s">
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -939,13 +947,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
+      <c r="D5" t="s">
+        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -977,13 +985,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
+      <c r="D6" t="s">
+        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -1015,13 +1023,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
+      <c r="D7" t="s">
+        <v>23</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -1053,13 +1061,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>23</v>
+      <c r="D8" t="s">
+        <v>24</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -1091,13 +1099,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
+      <c r="D9" t="s">
+        <v>27</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -1129,13 +1137,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
+      <c r="D10" t="s">
+        <v>28</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -1167,13 +1175,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
+      <c r="D11" t="s">
+        <v>29</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -1210,8 +1218,8 @@
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
+      <c r="D12" t="s">
+        <v>30</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -1246,10 +1254,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -1284,10 +1292,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -1322,10 +1330,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
@@ -1357,13 +1365,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
@@ -1395,13 +1403,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
       </c>
       <c r="E17" t="s">
         <v>16</v>
@@ -1433,13 +1441,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
@@ -1474,10 +1482,10 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
@@ -1509,13 +1517,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
@@ -1547,13 +1555,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
       </c>
       <c r="E21" t="s">
         <v>16</v>
@@ -1585,13 +1593,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
       </c>
       <c r="E22" t="s">
         <v>16</v>
@@ -1623,13 +1631,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
       </c>
       <c r="E23" t="s">
         <v>16</v>
@@ -1664,10 +1672,10 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
       </c>
       <c r="E24" t="s">
         <v>16</v>
@@ -1702,10 +1710,10 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
       </c>
       <c r="E25" t="s">
         <v>16</v>
@@ -1740,10 +1748,10 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
@@ -1778,10 +1786,10 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
@@ -1816,10 +1824,10 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
       </c>
       <c r="E28" t="s">
         <v>16</v>
@@ -1851,13 +1859,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
       </c>
       <c r="E29" t="s">
         <v>16</v>
@@ -1889,13 +1897,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
       </c>
       <c r="E30" t="s">
         <v>16</v>
@@ -1927,13 +1935,13 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
       </c>
       <c r="E31" t="s">
         <v>16</v>
@@ -1965,13 +1973,13 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
       </c>
       <c r="E32" t="s">
         <v>16</v>
@@ -2003,13 +2011,13 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
       </c>
       <c r="E33" t="s">
         <v>16</v>
@@ -2044,10 +2052,10 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="D34" t="s">
+        <v>51</v>
       </c>
       <c r="E34" t="s">
         <v>16</v>
@@ -2079,13 +2087,13 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
       </c>
       <c r="E35" t="s">
         <v>16</v>
@@ -2117,13 +2125,13 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
       </c>
       <c r="E36" t="s">
         <v>16</v>
@@ -2155,13 +2163,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
       </c>
       <c r="E37" t="s">
         <v>16</v>
@@ -2193,13 +2201,13 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="D38" t="s">
+        <v>52</v>
       </c>
       <c r="E38" t="s">
         <v>16</v>
@@ -2231,13 +2239,13 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="D39" t="s">
+        <v>53</v>
       </c>
       <c r="E39" t="s">
         <v>16</v>
@@ -2269,13 +2277,13 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>54</v>
       </c>
       <c r="E40" t="s">
         <v>16</v>
@@ -2307,13 +2315,13 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
       </c>
       <c r="E41" t="s">
         <v>16</v>
@@ -2345,13 +2353,13 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
       </c>
       <c r="E42" t="s">
         <v>16</v>
@@ -2383,13 +2391,13 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="D43" t="s">
+        <v>53</v>
       </c>
       <c r="E43" t="s">
         <v>16</v>
@@ -2421,13 +2429,13 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="D44" t="s">
+        <v>54</v>
       </c>
       <c r="E44" t="s">
         <v>16</v>
@@ -2462,10 +2470,10 @@
         <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>55</v>
       </c>
       <c r="E45" t="s">
         <v>16</v>
@@ -2500,10 +2508,10 @@
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="D46" t="s">
+        <v>56</v>
       </c>
       <c r="E46" t="s">
         <v>16</v>
@@ -2538,10 +2546,10 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="D47" t="s">
+        <v>57</v>
       </c>
       <c r="E47" t="s">
         <v>16</v>
@@ -2576,10 +2584,10 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="D48" t="s">
+        <v>59</v>
       </c>
       <c r="E48" t="s">
         <v>16</v>
@@ -2614,10 +2622,10 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="D49" t="s">
+        <v>60</v>
       </c>
       <c r="E49" t="s">
         <v>16</v>
@@ -2652,10 +2660,10 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" s="2" t="s">
         <v>58</v>
+      </c>
+      <c r="D50" t="s">
+        <v>61</v>
       </c>
       <c r="E50" t="s">
         <v>16</v>
@@ -2690,10 +2698,10 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="D51" t="s">
+        <v>62</v>
       </c>
       <c r="E51" t="s">
         <v>16</v>
@@ -2728,10 +2736,10 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="D52" t="s">
+        <v>64</v>
       </c>
       <c r="E52" t="s">
         <v>16</v>
@@ -2766,10 +2774,10 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="D53" t="s">
+        <v>65</v>
       </c>
       <c r="E53" t="s">
         <v>16</v>
@@ -2804,10 +2812,10 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="D54" t="s">
+        <v>67</v>
       </c>
       <c r="E54" t="s">
         <v>16</v>
@@ -2839,13 +2847,13 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="D55" t="s">
+        <v>68</v>
       </c>
       <c r="E55" t="s">
         <v>16</v>
@@ -2877,13 +2885,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="D56" t="s">
+        <v>68</v>
       </c>
       <c r="E56" t="s">
         <v>16</v>
@@ -2915,13 +2923,13 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
-      </c>
-      <c r="D57" s="2" t="s">
         <v>66</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
       </c>
       <c r="E57" t="s">
         <v>16</v>
@@ -2956,10 +2964,10 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="D58" t="s">
+        <v>70</v>
       </c>
       <c r="E58" t="s">
         <v>16</v>
@@ -2994,10 +3002,10 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="D59" t="s">
+        <v>71</v>
       </c>
       <c r="E59" t="s">
         <v>16</v>
@@ -3032,10 +3040,10 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="D60" t="s">
+        <v>73</v>
       </c>
       <c r="E60" t="s">
         <v>16</v>
@@ -3067,13 +3075,13 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="D61" t="s">
+        <v>74</v>
       </c>
       <c r="E61" t="s">
         <v>16</v>
@@ -3105,13 +3113,13 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="D62" t="s">
+        <v>74</v>
       </c>
       <c r="E62" t="s">
         <v>16</v>
@@ -3146,10 +3154,10 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
-      </c>
-      <c r="D63" s="2" t="s">
         <v>72</v>
+      </c>
+      <c r="D63" t="s">
+        <v>75</v>
       </c>
       <c r="E63" t="s">
         <v>16</v>
@@ -3184,10 +3192,10 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="D64" t="s">
+        <v>77</v>
       </c>
       <c r="E64" t="s">
         <v>16</v>
@@ -3222,10 +3230,10 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="D65" t="s">
+        <v>78</v>
       </c>
       <c r="E65" t="s">
         <v>16</v>
@@ -3260,10 +3268,10 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
-      </c>
-      <c r="D66" s="2" t="s">
         <v>76</v>
+      </c>
+      <c r="D66" t="s">
+        <v>79</v>
       </c>
       <c r="E66" t="s">
         <v>16</v>
@@ -3298,10 +3306,10 @@
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="D67" t="s">
+        <v>80</v>
       </c>
       <c r="E67" t="s">
         <v>16</v>
@@ -3336,10 +3344,10 @@
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="D68" t="s">
+        <v>81</v>
       </c>
       <c r="E68" t="s">
         <v>16</v>
@@ -3374,10 +3382,10 @@
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="D69" t="s">
+        <v>82</v>
       </c>
       <c r="E69" t="s">
         <v>16</v>
@@ -3412,10 +3420,10 @@
         <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="D70" t="s">
+        <v>84</v>
       </c>
       <c r="E70" t="s">
         <v>16</v>
@@ -3447,13 +3455,13 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="D71" t="s">
+        <v>85</v>
       </c>
       <c r="E71" t="s">
         <v>16</v>
@@ -3485,13 +3493,13 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
-      </c>
-      <c r="D72" s="2" t="s">
         <v>83</v>
+      </c>
+      <c r="D72" t="s">
+        <v>86</v>
       </c>
       <c r="E72" t="s">
         <v>16</v>
@@ -3523,13 +3531,13 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="D73" t="s">
+        <v>85</v>
       </c>
       <c r="E73" t="s">
         <v>16</v>
@@ -3561,13 +3569,13 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
-      </c>
-      <c r="D74" s="2" t="s">
         <v>83</v>
+      </c>
+      <c r="D74" t="s">
+        <v>86</v>
       </c>
       <c r="E74" t="s">
         <v>16</v>
@@ -3599,13 +3607,13 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="D75" t="s">
+        <v>87</v>
       </c>
       <c r="E75" t="s">
         <v>16</v>
@@ -3640,10 +3648,10 @@
         <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="D76" t="s">
+        <v>88</v>
       </c>
       <c r="E76" t="s">
         <v>16</v>
@@ -3678,10 +3686,10 @@
         <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="D77" t="s">
+        <v>89</v>
       </c>
       <c r="E77" t="s">
         <v>16</v>
@@ -3716,10 +3724,10 @@
         <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="D78" t="s">
+        <v>91</v>
       </c>
       <c r="E78" t="s">
         <v>16</v>
@@ -3754,10 +3762,10 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>87</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="D79" t="s">
+        <v>92</v>
       </c>
       <c r="E79" t="s">
         <v>16</v>
@@ -3789,13 +3797,13 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
-      </c>
-      <c r="D80" s="2" t="s">
         <v>90</v>
+      </c>
+      <c r="D80" t="s">
+        <v>93</v>
       </c>
       <c r="E80" t="s">
         <v>16</v>
@@ -3827,13 +3835,13 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="D81" t="s">
+        <v>94</v>
       </c>
       <c r="E81" t="s">
         <v>16</v>
@@ -3865,13 +3873,13 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="D82" t="s">
+        <v>95</v>
       </c>
       <c r="E82" t="s">
         <v>16</v>
@@ -3903,13 +3911,13 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="D83" t="s">
+        <v>96</v>
       </c>
       <c r="E83" t="s">
         <v>16</v>
@@ -3941,13 +3949,13 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
-      </c>
-      <c r="D84" s="2" t="s">
         <v>90</v>
+      </c>
+      <c r="D84" t="s">
+        <v>93</v>
       </c>
       <c r="E84" t="s">
         <v>16</v>
@@ -3979,13 +3987,13 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="D85" t="s">
+        <v>94</v>
       </c>
       <c r="E85" t="s">
         <v>16</v>
@@ -4017,13 +4025,13 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="D86" t="s">
+        <v>95</v>
       </c>
       <c r="E86" t="s">
         <v>16</v>
@@ -4055,13 +4063,13 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="D87" t="s">
+        <v>96</v>
       </c>
       <c r="E87" t="s">
         <v>16</v>
@@ -4093,13 +4101,13 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="D88" t="s">
+        <v>97</v>
       </c>
       <c r="E88" t="s">
         <v>16</v>
@@ -4131,13 +4139,13 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="D89" t="s">
+        <v>98</v>
       </c>
       <c r="E89" t="s">
         <v>16</v>
@@ -4169,13 +4177,13 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
+      </c>
+      <c r="D90" t="s">
+        <v>99</v>
       </c>
       <c r="E90" t="s">
         <v>16</v>
@@ -4210,10 +4218,10 @@
         <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>87</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
+      </c>
+      <c r="D91" t="s">
+        <v>100</v>
       </c>
       <c r="E91" t="s">
         <v>16</v>
@@ -4248,10 +4256,10 @@
         <v>13</v>
       </c>
       <c r="B92" t="s">
-        <v>87</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
+      </c>
+      <c r="D92" t="s">
+        <v>101</v>
       </c>
       <c r="E92" t="s">
         <v>16</v>
@@ -4286,10 +4294,10 @@
         <v>13</v>
       </c>
       <c r="B93" t="s">
-        <v>99</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="D93" t="s">
+        <v>103</v>
       </c>
       <c r="E93" t="s">
         <v>16</v>
@@ -4321,13 +4329,13 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B94" t="s">
-        <v>99</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="D94" t="s">
+        <v>104</v>
       </c>
       <c r="E94" t="s">
         <v>16</v>
@@ -4359,13 +4367,13 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
-      </c>
-      <c r="D95" s="2" t="s">
         <v>102</v>
+      </c>
+      <c r="D95" t="s">
+        <v>105</v>
       </c>
       <c r="E95" t="s">
         <v>16</v>
@@ -4397,13 +4405,13 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="D96" t="s">
+        <v>106</v>
       </c>
       <c r="E96" t="s">
         <v>16</v>
@@ -4435,13 +4443,13 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="D97" t="s">
+        <v>107</v>
       </c>
       <c r="E97" t="s">
         <v>16</v>
@@ -4473,13 +4481,13 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="D98" t="s">
+        <v>108</v>
       </c>
       <c r="E98" t="s">
         <v>16</v>
@@ -4511,13 +4519,13 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="D99" t="s">
+        <v>104</v>
       </c>
       <c r="E99" t="s">
         <v>16</v>
@@ -4549,13 +4557,13 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
-      </c>
-      <c r="D100" s="2" t="s">
         <v>102</v>
+      </c>
+      <c r="D100" t="s">
+        <v>105</v>
       </c>
       <c r="E100" t="s">
         <v>16</v>
@@ -4587,13 +4595,13 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="D101" t="s">
+        <v>106</v>
       </c>
       <c r="E101" t="s">
         <v>16</v>
@@ -4625,13 +4633,13 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B102" t="s">
-        <v>99</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="D102" t="s">
+        <v>107</v>
       </c>
       <c r="E102" t="s">
         <v>16</v>
@@ -4663,13 +4671,13 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B103" t="s">
-        <v>99</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="D103" t="s">
+        <v>108</v>
       </c>
       <c r="E103" t="s">
         <v>16</v>
@@ -4701,13 +4709,13 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B104" t="s">
-        <v>99</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="D104" t="s">
+        <v>109</v>
       </c>
       <c r="E104" t="s">
         <v>16</v>
@@ -4739,13 +4747,13 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B105" t="s">
-        <v>99</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="D105" t="s">
+        <v>110</v>
       </c>
       <c r="E105" t="s">
         <v>16</v>
@@ -4777,13 +4785,13 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B106" t="s">
-        <v>99</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
+      </c>
+      <c r="D106" t="s">
+        <v>111</v>
       </c>
       <c r="E106" t="s">
         <v>16</v>
@@ -4815,13 +4823,13 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B107" t="s">
-        <v>99</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
+      </c>
+      <c r="D107" t="s">
+        <v>112</v>
       </c>
       <c r="E107" t="s">
         <v>16</v>
@@ -4856,10 +4864,10 @@
         <v>13</v>
       </c>
       <c r="B108" t="s">
-        <v>99</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
+      </c>
+      <c r="D108" t="s">
+        <v>113</v>
       </c>
       <c r="E108" t="s">
         <v>16</v>
@@ -4894,10 +4902,10 @@
         <v>13</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+      <c r="D109" t="s">
+        <v>115</v>
       </c>
       <c r="E109" t="s">
         <v>16</v>
@@ -4932,10 +4940,10 @@
         <v>13</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="D110" t="s">
+        <v>116</v>
       </c>
       <c r="E110" t="s">
         <v>16</v>
@@ -4970,10 +4978,10 @@
         <v>13</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
-      </c>
-      <c r="D111" s="2" t="s">
         <v>114</v>
+      </c>
+      <c r="D111" t="s">
+        <v>117</v>
       </c>
       <c r="E111" t="s">
         <v>16</v>
